--- a/US/data/BTS/TRPT/TVT_historical - Rural - Annual.xlsx
+++ b/US/data/BTS/TRPT/TVT_historical - Rural - Annual.xlsx
@@ -633,10 +633,10 @@
         <v>226588</v>
       </c>
       <c r="AG2" t="n">
-        <v>268861</v>
+        <v>268682</v>
       </c>
       <c r="AH2" t="n">
-        <v>19020</v>
+        <v>60131</v>
       </c>
     </row>
     <row r="3">
@@ -739,10 +739,10 @@
         <v>342887</v>
       </c>
       <c r="AG3" t="n">
-        <v>391362</v>
+        <v>391216</v>
       </c>
       <c r="AH3" t="n">
-        <v>28053</v>
+        <v>88193</v>
       </c>
     </row>
     <row r="4">
@@ -845,10 +845,10 @@
         <v>305133</v>
       </c>
       <c r="AG4" t="n">
-        <v>349301</v>
+        <v>349029</v>
       </c>
       <c r="AH4" t="n">
-        <v>24755</v>
+        <v>77630</v>
       </c>
     </row>
     <row r="5">
@@ -951,10 +951,10 @@
         <v>874608</v>
       </c>
       <c r="AG5" t="n">
-        <v>1009525</v>
+        <v>1008926</v>
       </c>
       <c r="AH5" t="n">
-        <v>71828</v>
+        <v>225954</v>
       </c>
     </row>
   </sheetData>

--- a/US/data/BTS/TRPT/TVT_historical - Rural - Annual.xlsx
+++ b/US/data/BTS/TRPT/TVT_historical - Rural - Annual.xlsx
@@ -636,7 +636,7 @@
         <v>268682</v>
       </c>
       <c r="AH2" t="n">
-        <v>60131</v>
+        <v>81005</v>
       </c>
     </row>
     <row r="3">
@@ -742,7 +742,7 @@
         <v>391216</v>
       </c>
       <c r="AH3" t="n">
-        <v>88193</v>
+        <v>119325</v>
       </c>
     </row>
     <row r="4">
@@ -848,7 +848,7 @@
         <v>349029</v>
       </c>
       <c r="AH4" t="n">
-        <v>77630</v>
+        <v>105572</v>
       </c>
     </row>
     <row r="5">
@@ -954,7 +954,7 @@
         <v>1008926</v>
       </c>
       <c r="AH5" t="n">
-        <v>225954</v>
+        <v>305902</v>
       </c>
     </row>
   </sheetData>
